--- a/output/StructureDefinition-ndh-Verification.xlsx
+++ b/output/StructureDefinition-ndh-Verification.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="281">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NDH Verification</t>
+    <t>NDH Base Verification</t>
   </si>
   <si>
     <t>Status</t>
@@ -539,7 +539,10 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/ndh/ValueSet/ValidationProcessVS</t>
+    <t>The primary process by which the target is validated.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/verificationresult-validation-process</t>
   </si>
   <si>
     <t>VerificationResult.frequency</t>
@@ -2981,9 +2984,11 @@
       <c r="W17" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="X17" s="2"/>
+      <c r="X17" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
@@ -3024,7 +3029,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3047,13 +3052,13 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3104,7 +3109,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3127,7 +3132,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3153,10 +3158,10 @@
         <v>158</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3207,7 +3212,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3230,7 +3235,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3253,13 +3258,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3310,7 +3315,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3333,7 +3338,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3359,10 +3364,10 @@
         <v>146</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3392,10 +3397,10 @@
         <v>104</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -3413,7 +3418,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3436,7 +3441,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3459,13 +3464,13 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3516,7 +3521,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3539,7 +3544,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3565,10 +3570,10 @@
         <v>142</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3619,7 +3624,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3637,12 +3642,12 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3671,7 +3676,7 @@
         <v>127</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>129</v>
@@ -3724,7 +3729,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3742,16 +3747,16 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3773,10 +3778,10 @@
         <v>126</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>129</v>
@@ -3831,7 +3836,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3854,7 +3859,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3877,13 +3882,13 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3934,7 +3939,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -3949,7 +3954,7 @@
         <v>92</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -3957,7 +3962,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3983,10 +3988,10 @@
         <v>146</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4017,7 +4022,7 @@
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>74</v>
@@ -4035,7 +4040,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4058,7 +4063,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4084,10 +4089,10 @@
         <v>146</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4118,7 +4123,7 @@
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>74</v>
@@ -4136,7 +4141,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4159,7 +4164,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4185,10 +4190,10 @@
         <v>146</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4218,10 +4223,10 @@
         <v>104</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>74</v>
@@ -4239,7 +4244,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4262,7 +4267,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4288,10 +4293,10 @@
         <v>158</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4342,7 +4347,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4365,7 +4370,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4391,10 +4396,10 @@
         <v>146</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4424,10 +4429,10 @@
         <v>104</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>74</v>
@@ -4445,7 +4450,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4468,7 +4473,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4494,10 +4499,10 @@
         <v>146</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4527,10 +4532,10 @@
         <v>104</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
@@ -4548,7 +4553,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -4571,7 +4576,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4594,13 +4599,13 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4651,7 +4656,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4674,7 +4679,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4700,10 +4705,10 @@
         <v>142</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4754,7 +4759,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -4772,12 +4777,12 @@
         <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4806,7 +4811,7 @@
         <v>127</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>129</v>
@@ -4859,7 +4864,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -4877,16 +4882,16 @@
         <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4908,10 +4913,10 @@
         <v>126</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>129</v>
@@ -4966,7 +4971,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -4989,7 +4994,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5012,13 +5017,13 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5069,7 +5074,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5092,7 +5097,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5115,13 +5120,13 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5172,7 +5177,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5195,7 +5200,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5221,10 +5226,10 @@
         <v>146</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5255,7 +5260,7 @@
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>74</v>
@@ -5273,7 +5278,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5296,7 +5301,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5319,13 +5324,13 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5376,7 +5381,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -5399,7 +5404,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5425,10 +5430,10 @@
         <v>142</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5479,7 +5484,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -5502,7 +5507,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5528,10 +5533,10 @@
         <v>142</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5582,7 +5587,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -5605,7 +5610,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5628,13 +5633,13 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5685,7 +5690,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -5708,7 +5713,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5731,13 +5736,13 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5788,7 +5793,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -5811,7 +5816,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5834,13 +5839,13 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5891,7 +5896,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -5914,7 +5919,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5940,10 +5945,10 @@
         <v>142</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5994,7 +5999,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6012,12 +6017,12 @@
         <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6046,7 +6051,7 @@
         <v>127</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>129</v>
@@ -6099,7 +6104,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6117,16 +6122,16 @@
         <v>74</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6148,10 +6153,10 @@
         <v>126</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>129</v>
@@ -6206,7 +6211,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6229,7 +6234,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6252,13 +6257,13 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6309,7 +6314,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>80</v>
@@ -6332,7 +6337,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6358,10 +6363,10 @@
         <v>142</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6412,7 +6417,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -6435,7 +6440,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6458,13 +6463,13 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6515,7 +6520,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
